--- a/Scenarioer/Scenario data/Høy scenario/Analyse dokument høy scenario v2.xlsx
+++ b/Scenarioer/Scenario data/Høy scenario/Analyse dokument høy scenario v2.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\There\PycharmProjects\ABM---hospital\Scenarioer\Scenario data\Høy scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3CF1A8-3C0E-4A9D-AAC3-479972B13C78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F33A132-5B97-4315-8EAA-D6C019C5E015}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark3" sheetId="4" r:id="rId1"/>
-    <sheet name="Ark1" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Ark1" sheetId="5" r:id="rId1"/>
+    <sheet name="Ark3" sheetId="4" r:id="rId2"/>
+    <sheet name="Ark2" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="35" r:id="rId4"/>
+    <pivotCache cacheId="25" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="57">
   <si>
     <t>Beredskapsledelsen</t>
   </si>
@@ -198,6 +199,18 @@
   </si>
   <si>
     <t>Avdeling høy</t>
+  </si>
+  <si>
+    <t>Gjennomsnitt av kummulativt_antall_intensiv</t>
+  </si>
+  <si>
+    <t>Gjennomsnitt av dÃ¸de</t>
+  </si>
+  <si>
+    <t>Maks av dÃ¸de</t>
+  </si>
+  <si>
+    <t>Min av dÃ¸de</t>
   </si>
 </sst>
 </file>
@@ -12857,389 +12870,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34755860-F3D8-427E-986E-C230764E19E5}" name="Pivottabell7" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Verdier" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:G8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="27">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="150">
-        <item x="118"/>
-        <item x="139"/>
-        <item x="115"/>
-        <item x="134"/>
-        <item x="144"/>
-        <item x="113"/>
-        <item x="130"/>
-        <item x="123"/>
-        <item x="133"/>
-        <item x="116"/>
-        <item x="114"/>
-        <item x="117"/>
-        <item x="137"/>
-        <item x="135"/>
-        <item x="121"/>
-        <item x="148"/>
-        <item x="141"/>
-        <item x="140"/>
-        <item x="132"/>
-        <item x="146"/>
-        <item x="128"/>
-        <item x="119"/>
-        <item x="124"/>
-        <item x="129"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="138"/>
-        <item x="136"/>
-        <item x="120"/>
-        <item x="142"/>
-        <item x="145"/>
-        <item x="122"/>
-        <item x="127"/>
-        <item x="131"/>
-        <item x="147"/>
-        <item x="143"/>
-        <item x="70"/>
-        <item x="60"/>
-        <item x="44"/>
-        <item x="41"/>
-        <item x="66"/>
-        <item x="56"/>
-        <item x="75"/>
-        <item x="53"/>
-        <item x="59"/>
-        <item x="62"/>
-        <item x="72"/>
-        <item x="49"/>
-        <item x="73"/>
-        <item x="46"/>
-        <item x="43"/>
-        <item x="64"/>
-        <item x="47"/>
-        <item x="42"/>
-        <item x="51"/>
-        <item x="55"/>
-        <item x="58"/>
-        <item x="68"/>
-        <item x="54"/>
-        <item x="69"/>
-        <item x="52"/>
-        <item x="50"/>
-        <item x="57"/>
-        <item x="61"/>
-        <item x="48"/>
-        <item x="65"/>
-        <item x="45"/>
-        <item x="67"/>
-        <item x="63"/>
-        <item x="71"/>
-        <item x="74"/>
-        <item x="36"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="24"/>
-        <item x="39"/>
-        <item x="27"/>
-        <item x="9"/>
-        <item x="16"/>
-        <item x="11"/>
-        <item x="21"/>
-        <item x="32"/>
-        <item x="35"/>
-        <item x="20"/>
-        <item x="23"/>
-        <item x="2"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="7"/>
-        <item x="22"/>
-        <item x="26"/>
-        <item x="17"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="37"/>
-        <item x="0"/>
-        <item x="28"/>
-        <item x="13"/>
-        <item x="19"/>
-        <item x="33"/>
-        <item x="25"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="95"/>
-        <item x="94"/>
-        <item x="12"/>
-        <item x="101"/>
-        <item x="34"/>
-        <item x="38"/>
-        <item x="103"/>
-        <item x="84"/>
-        <item x="97"/>
-        <item x="106"/>
-        <item x="98"/>
-        <item x="8"/>
-        <item x="96"/>
-        <item x="78"/>
-        <item x="100"/>
-        <item x="99"/>
-        <item x="85"/>
-        <item x="83"/>
-        <item x="102"/>
-        <item x="91"/>
-        <item x="88"/>
-        <item x="82"/>
-        <item x="112"/>
-        <item x="76"/>
-        <item x="81"/>
-        <item x="79"/>
-        <item x="87"/>
-        <item x="90"/>
-        <item x="92"/>
-        <item x="110"/>
-        <item x="89"/>
-        <item x="107"/>
-        <item x="80"/>
-        <item x="93"/>
-        <item x="109"/>
-        <item x="111"/>
-        <item x="108"/>
-        <item x="86"/>
-        <item x="104"/>
-        <item x="77"/>
-        <item x="105"/>
-        <item x="40"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="53">
-        <item x="23"/>
-        <item x="26"/>
-        <item x="18"/>
-        <item x="25"/>
-        <item x="15"/>
-        <item x="30"/>
-        <item x="20"/>
-        <item x="29"/>
-        <item x="17"/>
-        <item x="24"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="19"/>
-        <item x="28"/>
-        <item x="16"/>
-        <item x="34"/>
-        <item x="27"/>
-        <item x="33"/>
-        <item x="42"/>
-        <item x="35"/>
-        <item x="37"/>
-        <item x="47"/>
-        <item x="36"/>
-        <item x="39"/>
-        <item x="48"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="45"/>
-        <item x="41"/>
-        <item x="46"/>
-        <item x="40"/>
-        <item x="49"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="38"/>
-        <item x="4"/>
-        <item x="10"/>
-        <item x="32"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="31"/>
-        <item x="1"/>
-        <item x="12"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="13"/>
-        <item x="0"/>
-        <item x="14"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="48">
-        <item x="8"/>
-        <item x="15"/>
-        <item x="11"/>
-        <item x="21"/>
-        <item x="4"/>
-        <item x="26"/>
-        <item x="9"/>
-        <item x="22"/>
-        <item x="2"/>
-        <item x="28"/>
-        <item x="3"/>
-        <item x="29"/>
-        <item x="38"/>
-        <item x="35"/>
-        <item x="23"/>
-        <item x="25"/>
-        <item x="20"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="16"/>
-        <item x="0"/>
-        <item x="27"/>
-        <item x="12"/>
-        <item x="19"/>
-        <item x="30"/>
-        <item x="32"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="31"/>
-        <item x="41"/>
-        <item x="6"/>
-        <item x="34"/>
-        <item x="13"/>
-        <item x="33"/>
-        <item x="14"/>
-        <item x="24"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="7"/>
-        <item x="40"/>
-        <item x="43"/>
-        <item x="39"/>
-        <item x="44"/>
-        <item x="37"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-  </colItems>
-  <dataFields count="6">
-    <dataField name="Gjennomsnitt av beredskaps_vellykkethet" fld="14" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Gjennomsnitt av beredskapshÃ¥ndtering" fld="15" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Gjennomsnitt av beredskapshÃ¥ndtering_dÃ¸ds_relatert" fld="16" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Gjennomsnitt av beredskapshÃ¥ndtering_kompetanse_relatert" fld="17" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Gjennomsnitt av beredskapshÃ¥ndtering_stress_relatert" fld="18" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Gjennomsnitt av beredskapshÃ¥ndtering_kommunikasjon" fld="19" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8843351C-0A19-4C0E-BC0B-C6186BD5A9EB}" name="Pivottabell10" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Verdier" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Avdeling høy">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8843351C-0A19-4C0E-BC0B-C6186BD5A9EB}" name="Pivottabell10" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Verdier" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Avdeling høy">
   <location ref="A3:N8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="27">
     <pivotField axis="axisRow" showAll="0">
@@ -14243,6 +13874,591 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34755860-F3D8-427E-986E-C230764E19E5}" name="Pivottabell7" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Verdier" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="27">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="150">
+        <item x="118"/>
+        <item x="139"/>
+        <item x="115"/>
+        <item x="134"/>
+        <item x="144"/>
+        <item x="113"/>
+        <item x="130"/>
+        <item x="123"/>
+        <item x="133"/>
+        <item x="116"/>
+        <item x="114"/>
+        <item x="117"/>
+        <item x="137"/>
+        <item x="135"/>
+        <item x="121"/>
+        <item x="148"/>
+        <item x="141"/>
+        <item x="140"/>
+        <item x="132"/>
+        <item x="146"/>
+        <item x="128"/>
+        <item x="119"/>
+        <item x="124"/>
+        <item x="129"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="138"/>
+        <item x="136"/>
+        <item x="120"/>
+        <item x="142"/>
+        <item x="145"/>
+        <item x="122"/>
+        <item x="127"/>
+        <item x="131"/>
+        <item x="147"/>
+        <item x="143"/>
+        <item x="70"/>
+        <item x="60"/>
+        <item x="44"/>
+        <item x="41"/>
+        <item x="66"/>
+        <item x="56"/>
+        <item x="75"/>
+        <item x="53"/>
+        <item x="59"/>
+        <item x="62"/>
+        <item x="72"/>
+        <item x="49"/>
+        <item x="73"/>
+        <item x="46"/>
+        <item x="43"/>
+        <item x="64"/>
+        <item x="47"/>
+        <item x="42"/>
+        <item x="51"/>
+        <item x="55"/>
+        <item x="58"/>
+        <item x="68"/>
+        <item x="54"/>
+        <item x="69"/>
+        <item x="52"/>
+        <item x="50"/>
+        <item x="57"/>
+        <item x="61"/>
+        <item x="48"/>
+        <item x="65"/>
+        <item x="45"/>
+        <item x="67"/>
+        <item x="63"/>
+        <item x="71"/>
+        <item x="74"/>
+        <item x="36"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="24"/>
+        <item x="39"/>
+        <item x="27"/>
+        <item x="9"/>
+        <item x="16"/>
+        <item x="11"/>
+        <item x="21"/>
+        <item x="32"/>
+        <item x="35"/>
+        <item x="20"/>
+        <item x="23"/>
+        <item x="2"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="7"/>
+        <item x="22"/>
+        <item x="26"/>
+        <item x="17"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="37"/>
+        <item x="0"/>
+        <item x="28"/>
+        <item x="13"/>
+        <item x="19"/>
+        <item x="33"/>
+        <item x="25"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="95"/>
+        <item x="94"/>
+        <item x="12"/>
+        <item x="101"/>
+        <item x="34"/>
+        <item x="38"/>
+        <item x="103"/>
+        <item x="84"/>
+        <item x="97"/>
+        <item x="106"/>
+        <item x="98"/>
+        <item x="8"/>
+        <item x="96"/>
+        <item x="78"/>
+        <item x="100"/>
+        <item x="99"/>
+        <item x="85"/>
+        <item x="83"/>
+        <item x="102"/>
+        <item x="91"/>
+        <item x="88"/>
+        <item x="82"/>
+        <item x="112"/>
+        <item x="76"/>
+        <item x="81"/>
+        <item x="79"/>
+        <item x="87"/>
+        <item x="90"/>
+        <item x="92"/>
+        <item x="110"/>
+        <item x="89"/>
+        <item x="107"/>
+        <item x="80"/>
+        <item x="93"/>
+        <item x="109"/>
+        <item x="111"/>
+        <item x="108"/>
+        <item x="86"/>
+        <item x="104"/>
+        <item x="77"/>
+        <item x="105"/>
+        <item x="40"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="53">
+        <item x="23"/>
+        <item x="26"/>
+        <item x="18"/>
+        <item x="25"/>
+        <item x="15"/>
+        <item x="30"/>
+        <item x="20"/>
+        <item x="29"/>
+        <item x="17"/>
+        <item x="24"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="19"/>
+        <item x="28"/>
+        <item x="16"/>
+        <item x="34"/>
+        <item x="27"/>
+        <item x="33"/>
+        <item x="42"/>
+        <item x="35"/>
+        <item x="37"/>
+        <item x="47"/>
+        <item x="36"/>
+        <item x="39"/>
+        <item x="48"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="45"/>
+        <item x="41"/>
+        <item x="46"/>
+        <item x="40"/>
+        <item x="49"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="38"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="32"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="31"/>
+        <item x="1"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="13"/>
+        <item x="0"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="48">
+        <item x="8"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="21"/>
+        <item x="4"/>
+        <item x="26"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="2"/>
+        <item x="28"/>
+        <item x="3"/>
+        <item x="29"/>
+        <item x="38"/>
+        <item x="35"/>
+        <item x="23"/>
+        <item x="25"/>
+        <item x="20"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="16"/>
+        <item x="0"/>
+        <item x="27"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="31"/>
+        <item x="41"/>
+        <item x="6"/>
+        <item x="34"/>
+        <item x="13"/>
+        <item x="33"/>
+        <item x="14"/>
+        <item x="24"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="7"/>
+        <item x="40"/>
+        <item x="43"/>
+        <item x="39"/>
+        <item x="44"/>
+        <item x="37"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+  </colItems>
+  <dataFields count="6">
+    <dataField name="Gjennomsnitt av beredskaps_vellykkethet" fld="14" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Gjennomsnitt av beredskapshÃ¥ndtering" fld="15" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Gjennomsnitt av beredskapshÃ¥ndtering_dÃ¸ds_relatert" fld="16" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Gjennomsnitt av beredskapshÃ¥ndtering_kompetanse_relatert" fld="17" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Gjennomsnitt av beredskapshÃ¥ndtering_stress_relatert" fld="18" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Gjennomsnitt av beredskapshÃ¥ndtering_kommunikasjon" fld="19" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8ED90DDB-FB3D-4524-BDCD-A5DA4B6A49F8}" name="Pivottabell12" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Verdier" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="27">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="28">
+        <item x="21"/>
+        <item x="25"/>
+        <item x="16"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="9"/>
+        <item x="18"/>
+        <item x="23"/>
+        <item x="13"/>
+        <item x="6"/>
+        <item x="24"/>
+        <item x="26"/>
+        <item x="22"/>
+        <item x="3"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="99">
+        <item x="95"/>
+        <item x="92"/>
+        <item x="84"/>
+        <item x="75"/>
+        <item x="33"/>
+        <item x="31"/>
+        <item x="73"/>
+        <item x="53"/>
+        <item x="85"/>
+        <item x="44"/>
+        <item x="39"/>
+        <item x="2"/>
+        <item x="83"/>
+        <item x="87"/>
+        <item x="89"/>
+        <item x="36"/>
+        <item x="17"/>
+        <item x="11"/>
+        <item x="45"/>
+        <item x="27"/>
+        <item x="18"/>
+        <item x="90"/>
+        <item x="7"/>
+        <item x="26"/>
+        <item x="77"/>
+        <item x="43"/>
+        <item x="21"/>
+        <item x="41"/>
+        <item x="35"/>
+        <item x="78"/>
+        <item x="40"/>
+        <item x="3"/>
+        <item x="59"/>
+        <item x="0"/>
+        <item x="72"/>
+        <item x="34"/>
+        <item x="23"/>
+        <item x="9"/>
+        <item x="62"/>
+        <item x="12"/>
+        <item x="25"/>
+        <item x="5"/>
+        <item x="38"/>
+        <item x="10"/>
+        <item x="28"/>
+        <item x="24"/>
+        <item x="51"/>
+        <item x="1"/>
+        <item x="71"/>
+        <item x="49"/>
+        <item x="37"/>
+        <item x="64"/>
+        <item x="69"/>
+        <item x="20"/>
+        <item x="60"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="66"/>
+        <item x="4"/>
+        <item x="14"/>
+        <item x="46"/>
+        <item x="48"/>
+        <item x="61"/>
+        <item x="52"/>
+        <item x="56"/>
+        <item x="16"/>
+        <item x="67"/>
+        <item x="22"/>
+        <item x="91"/>
+        <item x="57"/>
+        <item x="29"/>
+        <item x="54"/>
+        <item x="42"/>
+        <item x="32"/>
+        <item x="93"/>
+        <item x="15"/>
+        <item x="63"/>
+        <item x="76"/>
+        <item x="97"/>
+        <item x="13"/>
+        <item x="19"/>
+        <item x="50"/>
+        <item x="68"/>
+        <item x="55"/>
+        <item x="86"/>
+        <item x="79"/>
+        <item x="70"/>
+        <item x="65"/>
+        <item x="80"/>
+        <item x="94"/>
+        <item x="82"/>
+        <item x="96"/>
+        <item x="74"/>
+        <item x="30"/>
+        <item x="88"/>
+        <item x="81"/>
+        <item x="47"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Gjennomsnitt av kummulativt_antall_intensiv" fld="22" subtotal="average" baseField="24" baseItem="573526048"/>
+    <dataField name="Gjennomsnitt av dÃ¸de" fld="20" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="Maks av dÃ¸de" fld="20" subtotal="max" baseField="0" baseItem="1"/>
+    <dataField name="Min av dÃ¸de" fld="20" subtotal="min" baseField="0" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2BF3206F-E1CF-4FB5-8C6E-6FA597A6469C}" name="Tabell3" displayName="Tabell3" ref="A1:AA401" totalsRowShown="0">
   <autoFilter ref="A1:AA401" xr:uid="{83014169-E38B-47A8-B437-433669421122}"/>
@@ -14541,168 +14757,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C3AA16-A1C8-40DC-A40C-BAEBD51126E7}">
-  <dimension ref="A3:G8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3">
-        <v>7.27</v>
-      </c>
-      <c r="C4" s="3">
-        <v>692.09</v>
-      </c>
-      <c r="D4" s="3">
-        <v>248.3</v>
-      </c>
-      <c r="E4" s="3">
-        <v>247.96</v>
-      </c>
-      <c r="F4" s="3">
-        <v>15.83</v>
-      </c>
-      <c r="G4" s="3">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>427.59</v>
-      </c>
-      <c r="D5" s="3">
-        <v>249.7</v>
-      </c>
-      <c r="E5" s="3">
-        <v>29.64</v>
-      </c>
-      <c r="F5" s="3">
-        <v>8.25</v>
-      </c>
-      <c r="G5" s="3">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
-        <v>726.67</v>
-      </c>
-      <c r="D6" s="3">
-        <v>248.68</v>
-      </c>
-      <c r="E6" s="3">
-        <v>249.62</v>
-      </c>
-      <c r="F6" s="3">
-        <v>18.37</v>
-      </c>
-      <c r="G6" s="3">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4.01</v>
-      </c>
-      <c r="C7" s="3">
-        <v>379.5</v>
-      </c>
-      <c r="D7" s="3">
-        <v>249.06</v>
-      </c>
-      <c r="E7" s="3">
-        <v>52.76</v>
-      </c>
-      <c r="F7" s="3">
-        <v>7.68</v>
-      </c>
-      <c r="G7" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="3">
-        <v>6.07</v>
-      </c>
-      <c r="C8" s="3">
-        <v>556.46249999999998</v>
-      </c>
-      <c r="D8" s="3">
-        <v>248.935</v>
-      </c>
-      <c r="E8" s="3">
-        <v>144.995</v>
-      </c>
-      <c r="F8" s="3">
-        <v>12.532500000000001</v>
-      </c>
-      <c r="G8" s="3">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081699B9-01F5-43AA-8311-1EC5A7A880D9}">
   <dimension ref="A3:N8"/>
   <sheetViews>
@@ -14996,12 +15050,223 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C3AA16-A1C8-40DC-A40C-BAEBD51126E7}">
+  <dimension ref="A3:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>7.27</v>
+      </c>
+      <c r="C4" s="3">
+        <v>692.09</v>
+      </c>
+      <c r="D4" s="3">
+        <v>248.3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>247.96</v>
+      </c>
+      <c r="F4" s="3">
+        <v>15.83</v>
+      </c>
+      <c r="G4" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>427.59</v>
+      </c>
+      <c r="D5" s="3">
+        <v>249.7</v>
+      </c>
+      <c r="E5" s="3">
+        <v>29.64</v>
+      </c>
+      <c r="F5" s="3">
+        <v>8.25</v>
+      </c>
+      <c r="G5" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>726.67</v>
+      </c>
+      <c r="D6" s="3">
+        <v>248.68</v>
+      </c>
+      <c r="E6" s="3">
+        <v>249.62</v>
+      </c>
+      <c r="F6" s="3">
+        <v>18.37</v>
+      </c>
+      <c r="G6" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4.01</v>
+      </c>
+      <c r="C7" s="3">
+        <v>379.5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>249.06</v>
+      </c>
+      <c r="E7" s="3">
+        <v>52.76</v>
+      </c>
+      <c r="F7" s="3">
+        <v>7.68</v>
+      </c>
+      <c r="G7" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6.07</v>
+      </c>
+      <c r="C8" s="3">
+        <v>556.46249999999998</v>
+      </c>
+      <c r="D8" s="3">
+        <v>248.935</v>
+      </c>
+      <c r="E8" s="3">
+        <v>144.995</v>
+      </c>
+      <c r="F8" s="3">
+        <v>12.532500000000001</v>
+      </c>
+      <c r="G8" s="3">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41BC8F9-2B89-4FEC-B83A-7B03BBF456AD}">
+  <dimension ref="A3:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>630.97</v>
+      </c>
+      <c r="B4" s="3">
+        <v>23.057500000000001</v>
+      </c>
+      <c r="C4" s="3">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA401"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
